--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb1-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb1-Ephb4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.43712066666667</v>
+        <v>10.46510533333333</v>
       </c>
       <c r="H2">
-        <v>34.311362</v>
+        <v>31.395316</v>
       </c>
       <c r="I2">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="J2">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.000423</v>
+        <v>34.82273866666667</v>
       </c>
       <c r="N2">
-        <v>99.00126899999999</v>
+        <v>104.468216</v>
       </c>
       <c r="O2">
-        <v>0.7430839250895138</v>
+        <v>0.7026863693863559</v>
       </c>
       <c r="P2">
-        <v>0.7430839250895138</v>
+        <v>0.702686369386356</v>
       </c>
       <c r="Q2">
-        <v>377.429819902042</v>
+        <v>364.4236281418062</v>
       </c>
       <c r="R2">
-        <v>3396.868379118378</v>
+        <v>3279.812653276256</v>
       </c>
       <c r="S2">
-        <v>0.4307159707291239</v>
+        <v>0.3902773497680442</v>
       </c>
       <c r="T2">
-        <v>0.4307159707291239</v>
+        <v>0.3902773497680442</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.43712066666667</v>
+        <v>10.46510533333333</v>
       </c>
       <c r="H3">
-        <v>34.311362</v>
+        <v>31.395316</v>
       </c>
       <c r="I3">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="J3">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>25.605727</v>
       </c>
       <c r="O3">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="P3">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="Q3">
-        <v>97.6185964855749</v>
+        <v>89.32221006385913</v>
       </c>
       <c r="R3">
-        <v>878.5673683701741</v>
+        <v>803.8998905747321</v>
       </c>
       <c r="S3">
-        <v>0.1114005474114674</v>
+        <v>0.09565909761916537</v>
       </c>
       <c r="T3">
-        <v>0.1114005474114674</v>
+        <v>0.09565909761916538</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.43712066666667</v>
+        <v>10.46510533333333</v>
       </c>
       <c r="H4">
-        <v>34.311362</v>
+        <v>31.395316</v>
       </c>
       <c r="I4">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="J4">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.82036</v>
+        <v>6.169951999999999</v>
       </c>
       <c r="N4">
-        <v>8.461080000000001</v>
+        <v>18.509856</v>
       </c>
       <c r="O4">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="P4">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="Q4">
-        <v>32.25679764344</v>
+        <v>64.56919758161067</v>
       </c>
       <c r="R4">
-        <v>290.3111787909601</v>
+        <v>581.122778234496</v>
       </c>
       <c r="S4">
-        <v>0.03681086436999889</v>
+        <v>0.06915000390423179</v>
       </c>
       <c r="T4">
-        <v>0.03681086436999889</v>
+        <v>0.06915000390423182</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.43712066666667</v>
+        <v>10.46510533333333</v>
       </c>
       <c r="H5">
-        <v>34.311362</v>
+        <v>31.395316</v>
       </c>
       <c r="I5">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="J5">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05406333333333333</v>
+        <v>0.02865466666666667</v>
       </c>
       <c r="N5">
-        <v>0.16219</v>
+        <v>0.085964</v>
       </c>
       <c r="O5">
-        <v>0.001217366030028042</v>
+        <v>0.000578221141039957</v>
       </c>
       <c r="P5">
-        <v>0.001217366030028042</v>
+        <v>0.0005782211410399571</v>
       </c>
       <c r="Q5">
-        <v>0.6183288669755556</v>
+        <v>0.2998741049582222</v>
       </c>
       <c r="R5">
-        <v>5.564959802780001</v>
+        <v>2.698866944624</v>
       </c>
       <c r="S5">
-        <v>0.0007056255338763041</v>
+        <v>0.0003211484160451266</v>
       </c>
       <c r="T5">
-        <v>0.0007056255338763041</v>
+        <v>0.0003211484160451266</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>17.262925</v>
       </c>
       <c r="I6">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="J6">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.000423</v>
+        <v>34.82273866666667</v>
       </c>
       <c r="N6">
-        <v>99.00126899999999</v>
+        <v>104.468216</v>
       </c>
       <c r="O6">
-        <v>0.7430839250895138</v>
+        <v>0.7026863693863559</v>
       </c>
       <c r="P6">
-        <v>0.7430839250895138</v>
+        <v>0.702686369386356</v>
       </c>
       <c r="Q6">
-        <v>189.894609072425</v>
+        <v>200.3807752990889</v>
       </c>
       <c r="R6">
-        <v>1709.051481651825</v>
+        <v>1803.4269776918</v>
       </c>
       <c r="S6">
-        <v>0.2167042363109649</v>
+        <v>0.2145966174777318</v>
       </c>
       <c r="T6">
-        <v>0.2167042363109649</v>
+        <v>0.2145966174777319</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>17.262925</v>
       </c>
       <c r="I7">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="J7">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>25.605727</v>
       </c>
       <c r="O7">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="P7">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="Q7">
         <v>49.11441608571946</v>
@@ -883,10 +883,10 @@
         <v>442.0297447714751</v>
       </c>
       <c r="S7">
-        <v>0.05604846857793363</v>
+        <v>0.0525987961951818</v>
       </c>
       <c r="T7">
-        <v>0.05604846857793363</v>
+        <v>0.05259879619518181</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>17.262925</v>
       </c>
       <c r="I8">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="J8">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.82036</v>
+        <v>6.169951999999999</v>
       </c>
       <c r="N8">
-        <v>8.461080000000001</v>
+        <v>18.509856</v>
       </c>
       <c r="O8">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="P8">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="Q8">
-        <v>16.22922105100001</v>
+        <v>35.50380620986667</v>
       </c>
       <c r="R8">
-        <v>146.0629894590001</v>
+        <v>319.5342558888</v>
       </c>
       <c r="S8">
-        <v>0.01852048865925121</v>
+        <v>0.03802259327947075</v>
       </c>
       <c r="T8">
-        <v>0.01852048865925121</v>
+        <v>0.03802259327947077</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>17.262925</v>
       </c>
       <c r="I9">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="J9">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05406333333333333</v>
+        <v>0.02865466666666667</v>
       </c>
       <c r="N9">
-        <v>0.16219</v>
+        <v>0.085964</v>
       </c>
       <c r="O9">
-        <v>0.001217366030028042</v>
+        <v>0.000578221141039957</v>
       </c>
       <c r="P9">
-        <v>0.001217366030028042</v>
+        <v>0.0005782211410399571</v>
       </c>
       <c r="Q9">
-        <v>0.3110970895277778</v>
+        <v>0.1648877871888889</v>
       </c>
       <c r="R9">
-        <v>2.79987380575</v>
+        <v>1.4839900847</v>
       </c>
       <c r="S9">
-        <v>0.0003550182784755557</v>
+        <v>0.0001765856097787268</v>
       </c>
       <c r="T9">
-        <v>0.0003550182784755557</v>
+        <v>0.0001765856097787268</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.273219</v>
+        <v>2.146766</v>
       </c>
       <c r="H10">
-        <v>6.819656999999999</v>
+        <v>6.440298</v>
       </c>
       <c r="I10">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="J10">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.000423</v>
+        <v>34.82273866666667</v>
       </c>
       <c r="N10">
-        <v>99.00126899999999</v>
+        <v>104.468216</v>
       </c>
       <c r="O10">
-        <v>0.7430839250895138</v>
+        <v>0.7026863693863559</v>
       </c>
       <c r="P10">
-        <v>0.7430839250895138</v>
+        <v>0.702686369386356</v>
       </c>
       <c r="Q10">
-        <v>75.01718857163698</v>
+        <v>74.75627139648533</v>
       </c>
       <c r="R10">
-        <v>675.1546971447329</v>
+        <v>672.806442568368</v>
       </c>
       <c r="S10">
-        <v>0.08560823626863498</v>
+        <v>0.08005979093048259</v>
       </c>
       <c r="T10">
-        <v>0.08560823626863499</v>
+        <v>0.08005979093048261</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.273219</v>
+        <v>2.146766</v>
       </c>
       <c r="H11">
-        <v>6.819656999999999</v>
+        <v>6.440298</v>
       </c>
       <c r="I11">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="J11">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>25.605727</v>
       </c>
       <c r="O11">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="P11">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="Q11">
-        <v>19.40247504173767</v>
+        <v>18.32316804296067</v>
       </c>
       <c r="R11">
-        <v>174.622275375639</v>
+        <v>164.908512386646</v>
       </c>
       <c r="S11">
-        <v>0.02214174776735605</v>
+        <v>0.01962308947865074</v>
       </c>
       <c r="T11">
-        <v>0.02214174776735606</v>
+        <v>0.01962308947865075</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.273219</v>
+        <v>2.146766</v>
       </c>
       <c r="H12">
-        <v>6.819656999999999</v>
+        <v>6.440298</v>
       </c>
       <c r="I12">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="J12">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.82036</v>
+        <v>6.169951999999999</v>
       </c>
       <c r="N12">
-        <v>8.461080000000001</v>
+        <v>18.509856</v>
       </c>
       <c r="O12">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="P12">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="Q12">
-        <v>6.41129593884</v>
+        <v>13.245443175232</v>
       </c>
       <c r="R12">
-        <v>57.70166344956</v>
+        <v>119.208988577088</v>
       </c>
       <c r="S12">
-        <v>0.007316453041908201</v>
+        <v>0.01418512977682455</v>
       </c>
       <c r="T12">
-        <v>0.007316453041908202</v>
+        <v>0.01418512977682455</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.273219</v>
+        <v>2.146766</v>
       </c>
       <c r="H13">
-        <v>6.819656999999999</v>
+        <v>6.440298</v>
       </c>
       <c r="I13">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="J13">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.05406333333333333</v>
+        <v>0.02865466666666667</v>
       </c>
       <c r="N13">
-        <v>0.16219</v>
+        <v>0.085964</v>
       </c>
       <c r="O13">
-        <v>0.001217366030028042</v>
+        <v>0.000578221141039957</v>
       </c>
       <c r="P13">
-        <v>0.001217366030028042</v>
+        <v>0.0005782211410399571</v>
       </c>
       <c r="Q13">
-        <v>0.1228977965366666</v>
+        <v>0.06151486414133333</v>
       </c>
       <c r="R13">
-        <v>1.10608016883</v>
+        <v>0.553633777272</v>
       </c>
       <c r="S13">
-        <v>0.0001402487057050744</v>
+        <v>6.587898339862533E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001402487057050744</v>
+        <v>6.587898339862536E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2670106666666667</v>
+        <v>0.4760280000000001</v>
       </c>
       <c r="H14">
-        <v>0.8010320000000001</v>
+        <v>1.428084</v>
       </c>
       <c r="I14">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="J14">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.000423</v>
+        <v>34.82273866666667</v>
       </c>
       <c r="N14">
-        <v>99.00126899999999</v>
+        <v>104.468216</v>
       </c>
       <c r="O14">
-        <v>0.7430839250895138</v>
+        <v>0.7026863693863559</v>
       </c>
       <c r="P14">
-        <v>0.7430839250895138</v>
+        <v>0.702686369386356</v>
       </c>
       <c r="Q14">
-        <v>8.811464945512</v>
+        <v>16.576598642016</v>
       </c>
       <c r="R14">
-        <v>79.303184509608</v>
+        <v>149.189387778144</v>
       </c>
       <c r="S14">
-        <v>0.01005548178079003</v>
+        <v>0.01775261121009732</v>
       </c>
       <c r="T14">
-        <v>0.01005548178079004</v>
+        <v>0.01775261121009732</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2670106666666667</v>
+        <v>0.4760280000000001</v>
       </c>
       <c r="H15">
-        <v>0.8010320000000001</v>
+        <v>1.428084</v>
       </c>
       <c r="I15">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="J15">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>25.605727</v>
       </c>
       <c r="O15">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="P15">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="Q15">
-        <v>2.279000745584889</v>
+        <v>4.063014337452001</v>
       </c>
       <c r="R15">
-        <v>20.511006710264</v>
+        <v>36.56712903706801</v>
       </c>
       <c r="S15">
-        <v>0.002600753747231094</v>
+        <v>0.004351261403591803</v>
       </c>
       <c r="T15">
-        <v>0.002600753747231094</v>
+        <v>0.004351261403591803</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2670106666666667</v>
+        <v>0.4760280000000001</v>
       </c>
       <c r="H16">
-        <v>0.8010320000000001</v>
+        <v>1.428084</v>
       </c>
       <c r="I16">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="J16">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.82036</v>
+        <v>6.169951999999999</v>
       </c>
       <c r="N16">
-        <v>8.461080000000001</v>
+        <v>18.509856</v>
       </c>
       <c r="O16">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="P16">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="Q16">
-        <v>0.7530662038400001</v>
+        <v>2.937069910656</v>
       </c>
       <c r="R16">
-        <v>6.777595834560001</v>
+        <v>26.433629195904</v>
       </c>
       <c r="S16">
-        <v>0.0008593853053116617</v>
+        <v>0.00314543781548722</v>
       </c>
       <c r="T16">
-        <v>0.0008593853053116619</v>
+        <v>0.003145437815487221</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2670106666666667</v>
+        <v>0.4760280000000001</v>
       </c>
       <c r="H17">
-        <v>0.8010320000000001</v>
+        <v>1.428084</v>
       </c>
       <c r="I17">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="J17">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.05406333333333333</v>
+        <v>0.02865466666666667</v>
       </c>
       <c r="N17">
-        <v>0.16219</v>
+        <v>0.085964</v>
       </c>
       <c r="O17">
-        <v>0.001217366030028042</v>
+        <v>0.000578221141039957</v>
       </c>
       <c r="P17">
-        <v>0.001217366030028042</v>
+        <v>0.0005782211410399571</v>
       </c>
       <c r="Q17">
-        <v>0.01443548667555556</v>
+        <v>0.013640423664</v>
       </c>
       <c r="R17">
-        <v>0.12991938008</v>
+        <v>0.122763812976</v>
       </c>
       <c r="S17">
-        <v>1.647351197110752E-05</v>
+        <v>1.46081318174784E-05</v>
       </c>
       <c r="T17">
-        <v>1.647351197110752E-05</v>
+        <v>1.46081318174784E-05</v>
       </c>
     </row>
   </sheetData>
